--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail5 Features.xlsx
@@ -3586,7 +3586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3597,29 +3597,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3640,115 +3638,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3765,72 +3753,66 @@
         <v>2.34577666301999e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1386541800607959</v>
+        <v>9.121889439397311e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.195217328230968</v>
+        <v>2.460938827106195e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.121889439397311e-07</v>
+        <v>0.01783108655539538</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.460938827106195e-06</v>
+        <v>0.1900768210159655</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01783108655539538</v>
+        <v>0.03639668463121171</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1900768210159655</v>
+        <v>1.924969857325022</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03639668463121171</v>
+        <v>1.68560199408208</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.929371574010172</v>
+        <v>4.007995714428292</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.68560199408208</v>
+        <v>8.874269832781727e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.007995714428292</v>
+        <v>174129409.1451947</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.874269832781727e-16</v>
+        <v>6.962026444879796e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>174129409.1451947</v>
+        <v>26.90771893345767</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.962026444879796e-07</v>
+        <v>0.0002613456826799613</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>26.90771893345767</v>
+        <v>13.54016873930533</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002613456826799613</v>
+        <v>1.062586843939499</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.54016873930533</v>
+        <v>0.04791411637499554</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.062586843939499</v>
+        <v>2.194744692083895</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.04791411637499554</v>
+        <v>0.9605156030638415</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.194744692083895</v>
+        <v>1.323254741111719</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9605156030638415</v>
+        <v>23</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.323254741111719</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4682268221532668</v>
       </c>
     </row>
@@ -3845,72 +3827,66 @@
         <v>2.301526147374691e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2040738847024355</v>
+        <v>7.292656359601202e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.272490798860005</v>
+        <v>2.463748628715725e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.292656359601202e-07</v>
+        <v>0.007041068497433927</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.463748628715725e-06</v>
+        <v>0.1657842696528231</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.007041068497433927</v>
+        <v>0.02750049842726775</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1657842696528231</v>
+        <v>1.891407885865356</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02750049842726775</v>
+        <v>1.662215343076188</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.890318513661482</v>
+        <v>3.466208758572944</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.662215343076188</v>
+        <v>1.262595844248173e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.466208758572944</v>
+        <v>117046639.0821024</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.262595844248173e-15</v>
+        <v>1.018771297867169e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>117046639.0821024</v>
+        <v>17.2974566551474</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.018771297867169e-06</v>
+        <v>0.0002628911641588191</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>17.2974566551474</v>
+        <v>14.12973610430915</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002628911641588191</v>
+        <v>0.9962966857324169</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>14.12973610430915</v>
+        <v>0.05248607433025837</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9962966857324169</v>
+        <v>2.037325884934753</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.05248607433025837</v>
+        <v>0.9604777947105884</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.037325884934753</v>
+        <v>1.392288696822179</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9604777947105884</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.392288696822179</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3356959749562289</v>
       </c>
     </row>
@@ -3925,72 +3901,66 @@
         <v>2.293486360193692e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2106020118798925</v>
+        <v>6.931597508033539e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.272131650843941</v>
+        <v>2.464394698084372e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.931597508033539e-07</v>
+        <v>-0.0009902482007420213</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.464394698084372e-06</v>
+        <v>0.1461545169311106</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0009902482007420213</v>
+        <v>0.02133950661945896</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1461545169311106</v>
+        <v>1.775845617133724</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02133950661945896</v>
+        <v>1.674594982823606</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.733432533478471</v>
+        <v>5.674483512600916</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.674594982823606</v>
+        <v>1.572198030892235e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.674483512600916</v>
+        <v>98580201.32016666</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.572198030892235e-15</v>
+        <v>1.158223314577222e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>98580201.32016666</v>
+        <v>15.27870865245301</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.158223314577222e-06</v>
+        <v>0.0002413477421176892</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15.27870865245301</v>
+        <v>12.98466651687384</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002413477421176892</v>
+        <v>1.070552709672955</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.98466651687384</v>
+        <v>0.04069160692272018</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.070552709672955</v>
+        <v>2.252045337220669</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04069160692272018</v>
+        <v>0.9560586761349751</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.252045337220669</v>
+        <v>1.705538168714481</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9560586761349751</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.705538168714481</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2604090050387599</v>
       </c>
     </row>
@@ -4005,72 +3975,66 @@
         <v>2.300957585797339e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2144451929653345</v>
+        <v>6.931597508033539e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.283168690657866</v>
+        <v>2.463367594368865e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.931597508033539e-07</v>
+        <v>-0.00772737053977966</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.463367594368865e-06</v>
+        <v>0.1299711806368626</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.00772737053977966</v>
+        <v>0.01693751093613375</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1299711806368626</v>
+        <v>1.766465938223879</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01693751093613375</v>
+        <v>1.626271793901825</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.715280154020624</v>
+        <v>4.693837324297099</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.626271793901825</v>
+        <v>3.1474648820083e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.693837324297099</v>
+        <v>51942687.84067229</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.1474648820083e-15</v>
+        <v>2.208527301852581e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>51942687.84067229</v>
+        <v>8.491995026461957</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.208527301852581e-06</v>
+        <v>0.0002457655514680647</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.491995026461957</v>
+        <v>9.357370360581712</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002457655514680647</v>
+        <v>1.795888437713809</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.357370360581712</v>
+        <v>0.02151932509345094</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.795888437713809</v>
+        <v>2.656795815716886</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02151932509345094</v>
+        <v>0.9559006244320711</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.656795815716886</v>
+        <v>1.795512344259848</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9559006244320711</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.795512344259848</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1592790752918509</v>
       </c>
     </row>
@@ -4085,72 +4049,66 @@
         <v>2.312776850203561e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2347341276573932</v>
+        <v>6.931597508033539e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.301346585777699</v>
+        <v>2.46086827781156e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.931597508033539e-07</v>
+        <v>-0.01379423429200623</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.46086827781156e-06</v>
+        <v>0.1167028678594169</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01379423429200623</v>
+        <v>0.01379964010328566</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1167028678594169</v>
+        <v>1.748173735413461</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01379964010328566</v>
+        <v>1.621116772235588</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.694704632590489</v>
+        <v>4.011189139964962</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.621116772235588</v>
+        <v>4.309934595486095e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.011189139964962</v>
+        <v>38013719.45790043</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.309934595486095e-15</v>
+        <v>3.002416316390967e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>38013719.45790043</v>
+        <v>6.228040244546971</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.002416316390967e-06</v>
+        <v>0.0001902781550106374</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.228040244546971</v>
+        <v>9.159346157227828</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001902781550106374</v>
+        <v>1.588280606374811</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.159346157227828</v>
+        <v>0.01596312361663318</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.588280606374811</v>
+        <v>2.802539298339016</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01596312361663318</v>
+        <v>0.9556053427705222</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.802539298339016</v>
+        <v>1.789455508225611</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9556053427705222</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.789455508225611</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1476274790580815</v>
       </c>
     </row>
@@ -4165,72 +4123,66 @@
         <v>2.322307254170629e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2743499138218558</v>
+        <v>6.931597508033539e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.306911654424295</v>
+        <v>2.456974147136404e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.931597508033539e-07</v>
+        <v>-0.0198008289003904</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.456974147136404e-06</v>
+        <v>0.1042608037557943</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0198008289003904</v>
+        <v>0.01125295899221726</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1042608037557943</v>
+        <v>1.744167571542724</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01125295899221726</v>
+        <v>1.620723476299553</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.685766544581571</v>
+        <v>3.785239982052294</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.620723476299553</v>
+        <v>4.839830184490587e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.785239982052294</v>
+        <v>34536069.38893047</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.839830184490587e-15</v>
+        <v>3.31252690789036e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>34536069.38893047</v>
+        <v>5.772659484205394</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.31252690789036e-06</v>
+        <v>0.0001630477053221104</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.772659484205394</v>
+        <v>9.965755312361088</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001630477053221104</v>
+        <v>1.175709249809687</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.965755312361088</v>
+        <v>0.016193291383252</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.175709249809687</v>
+        <v>2.715925616000796</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.016193291383252</v>
+        <v>0.9549310869499609</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.715925616000796</v>
+        <v>1.777570487284988</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9549310869499609</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.777570487284988</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1555805733608342</v>
       </c>
     </row>
@@ -4607,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.497252913135399</v>
+        <v>1.528060266571714</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.446111185110932</v>
@@ -4696,7 +4648,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.512966329005349</v>
+        <v>1.546996575657914</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.496403121247006</v>
@@ -4785,7 +4737,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505591637755714</v>
+        <v>1.538725154609103</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.426301325170872</v>
@@ -4874,7 +4826,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.530686979627664</v>
+        <v>1.564433480647987</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.31334650833993</v>
@@ -4963,7 +4915,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544582367001389</v>
+        <v>1.578405447767028</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40729728424487</v>
@@ -5052,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578928183172066</v>
+        <v>1.606150509599736</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.382921685972245</v>
@@ -5141,7 +5093,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.578083628909065</v>
+        <v>1.606172797213064</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.420950834436474</v>
@@ -5230,7 +5182,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.572646029382822</v>
+        <v>1.602357017376788</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.368501273555748</v>
@@ -5319,7 +5271,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.628912084881976</v>
+        <v>1.654250032125266</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.200610255127551</v>
@@ -5408,7 +5360,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.645558397050052</v>
+        <v>1.66990167570924</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.752062597772519</v>
@@ -5497,7 +5449,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.642830787184633</v>
+        <v>1.669496506849666</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.533102447904053</v>
@@ -5586,7 +5538,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.681755349693948</v>
+        <v>1.701254014601225</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.67680870037583</v>
@@ -5675,7 +5627,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.647752087949814</v>
+        <v>1.676074332573656</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.575243341301769</v>
@@ -5764,7 +5716,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645975319954279</v>
+        <v>1.674682808579923</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.51041277234026</v>
@@ -5853,7 +5805,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.648767600592836</v>
+        <v>1.668037506415081</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.525365534318277</v>
@@ -5942,7 +5894,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.638942583890584</v>
+        <v>1.659464721190577</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.353712268907577</v>
@@ -6031,7 +5983,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.643050723818554</v>
+        <v>1.659976915633683</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.523341576598205</v>
@@ -6120,7 +6072,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.633765937450851</v>
+        <v>1.655859290676502</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.456151407674923</v>
@@ -6209,7 +6161,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.645393304224947</v>
+        <v>1.668296992506098</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.507591819228488</v>
@@ -6298,7 +6250,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645524070053407</v>
+        <v>1.671569682956592</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.54175229951002</v>
@@ -6387,7 +6339,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608855976635082</v>
+        <v>1.643477421819786</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.490013397889496</v>
@@ -6476,7 +6428,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.608954421436963</v>
+        <v>1.638383152040671</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.382165439411381</v>
@@ -6565,7 +6517,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.609913915984619</v>
+        <v>1.633866226395213</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.513992155581648</v>
@@ -6654,7 +6606,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606815233067363</v>
+        <v>1.625205444346492</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.702726134312266</v>
@@ -6743,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.652854507506663</v>
+        <v>1.666996947090502</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.58200180524784</v>
@@ -6832,7 +6784,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658757080365628</v>
+        <v>1.673892009062453</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.51789272762253</v>
@@ -6921,7 +6873,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.624493636144021</v>
+        <v>1.645770572205826</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.402112292737197</v>
@@ -7010,7 +6962,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.662348314545407</v>
+        <v>1.678004040873542</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.487869151365899</v>
@@ -7099,7 +7051,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.666393733744112</v>
+        <v>1.679631855972034</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.564429507021426</v>
@@ -7188,7 +7140,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665556580036343</v>
+        <v>1.680775162914468</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.316601042128906</v>
@@ -7277,7 +7229,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.685441866577889</v>
+        <v>1.703657310209152</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.551627337014384</v>
@@ -7366,7 +7318,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.689378861119584</v>
+        <v>1.709955010654919</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.842365386685325</v>
@@ -7455,7 +7407,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.734257299916383</v>
+        <v>1.746927565258507</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.896812049089459</v>
@@ -7544,7 +7496,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.733364799700494</v>
+        <v>1.746863584038217</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.71423224565922</v>
@@ -7633,7 +7585,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.73511380454479</v>
+        <v>1.740805609180043</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.364944639708877</v>
@@ -7722,7 +7674,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786858042840631</v>
+        <v>1.780985617827023</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.577041619732706</v>
@@ -7811,7 +7763,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.787396748154155</v>
+        <v>1.786455036893254</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.778474915881079</v>
@@ -7900,7 +7852,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.786413194095895</v>
+        <v>1.789617820134392</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.680260026970462</v>
@@ -7989,7 +7941,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.789486073405885</v>
+        <v>1.793979506989849</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.686251262675792</v>
@@ -8078,7 +8030,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.791494378147737</v>
+        <v>1.799042323481736</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.763844135879823</v>
@@ -8167,7 +8119,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.822669328837563</v>
+        <v>1.81853619953345</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.3386308092485</v>
@@ -8256,7 +8208,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.858302003413787</v>
+        <v>1.848312655389951</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.694339179465558</v>
@@ -8345,7 +8297,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.858006181666755</v>
+        <v>1.847774951341718</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.623393975367815</v>
@@ -8434,7 +8386,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.852118233658999</v>
+        <v>1.833800231132578</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.605486188222701</v>
@@ -8523,7 +8475,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.844162623448433</v>
+        <v>1.836386675442337</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.561265608275249</v>
@@ -8612,7 +8564,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.839038548485688</v>
+        <v>1.825902037945943</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.502994109608955</v>
@@ -8701,7 +8653,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.832310786237861</v>
+        <v>1.817906173975541</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.467088707448698</v>
@@ -8790,7 +8742,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.709617400937302</v>
+        <v>1.697855870037513</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.515948360303619</v>
@@ -8879,7 +8831,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.688680071535264</v>
+        <v>1.687621229196745</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.407337507113779</v>
@@ -8968,7 +8920,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.686312482024211</v>
+        <v>1.686361117220475</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.418043181872429</v>
@@ -9057,7 +9009,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.686587531538422</v>
+        <v>1.686364229073436</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.472785557504415</v>
@@ -9343,7 +9295,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.684555659693152</v>
+        <v>1.68854858969638</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.319998803661762</v>
@@ -9432,7 +9384,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.691136880839674</v>
+        <v>1.693479329039924</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.256012692982269</v>
@@ -9521,7 +9473,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.70271878553316</v>
+        <v>1.695812632304774</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.065965029691423</v>
@@ -9610,7 +9562,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.720949599316774</v>
+        <v>1.706763982103172</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.164166318352081</v>
@@ -9699,7 +9651,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.729139231171111</v>
+        <v>1.701249731367398</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.629504476390905</v>
@@ -9788,7 +9740,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.707194029010864</v>
+        <v>1.668383581588602</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.246192383993403</v>
@@ -9877,7 +9829,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.710386310935146</v>
+        <v>1.667149999097623</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.542131773756382</v>
@@ -9966,7 +9918,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.664613257666952</v>
+        <v>1.627820728712055</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.203162916241961</v>
@@ -10055,7 +10007,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.669875940435607</v>
+        <v>1.631021886275268</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.848912974104588</v>
@@ -10144,7 +10096,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.676623629889882</v>
+        <v>1.63206185383927</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.95522860755025</v>
@@ -10233,7 +10185,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670040458724916</v>
+        <v>1.629510497892736</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.282558316335156</v>
@@ -10322,7 +10274,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.671990633341331</v>
+        <v>1.632257086738962</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.090972413142859</v>
@@ -10411,7 +10363,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662049658649566</v>
+        <v>1.638166430634906</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.663680402561366</v>
@@ -10500,7 +10452,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.665991814226409</v>
+        <v>1.635983527982918</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.733408224012738</v>
@@ -10589,7 +10541,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653439234592613</v>
+        <v>1.61003455404978</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.699366682052303</v>
@@ -10678,7 +10630,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.617840562331143</v>
+        <v>1.569243969395775</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.611184656395872</v>
@@ -10767,7 +10719,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.618028162591941</v>
+        <v>1.553259811996358</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.749171816172418</v>
@@ -10856,7 +10808,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.592510206915478</v>
+        <v>1.538851423253475</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.708451380235866</v>
@@ -10945,7 +10897,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.595217191320226</v>
+        <v>1.535819294216998</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.59910942799786</v>
@@ -11034,7 +10986,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.601273178768099</v>
+        <v>1.548379220355622</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.621172199535343</v>
@@ -11123,7 +11075,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.599048736231487</v>
+        <v>1.541717066815846</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.687244633510637</v>
@@ -11212,7 +11164,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.612661202847857</v>
+        <v>1.551543537204722</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.369252310133567</v>
@@ -11301,7 +11253,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.643187256054013</v>
+        <v>1.578127950135058</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.832888315968212</v>
@@ -11390,7 +11342,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.637224599520418</v>
+        <v>1.567107303103918</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.846279004690876</v>
@@ -11479,7 +11431,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.638549141687452</v>
+        <v>1.56235901916969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.700284537458486</v>
@@ -11568,7 +11520,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639628514656054</v>
+        <v>1.564373491531241</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.54518587870445</v>
@@ -11657,7 +11609,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.631000052664049</v>
+        <v>1.555897323683315</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.698747441995091</v>
@@ -11746,7 +11698,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.657653041201832</v>
+        <v>1.566191504310369</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.973927591924117</v>
@@ -11835,7 +11787,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.661519408979098</v>
+        <v>1.570096656550897</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.86166179655272</v>
@@ -11924,7 +11876,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.664617332010653</v>
+        <v>1.582663646597732</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.459236706477085</v>
@@ -12013,7 +11965,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.686869106239502</v>
+        <v>1.617678076304431</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.185661909636017</v>
@@ -12102,7 +12054,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700151723028278</v>
+        <v>1.637280875735058</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.166653011852921</v>
@@ -12191,7 +12143,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.708022962625931</v>
+        <v>1.636571719821437</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.410880859463672</v>
@@ -12280,7 +12232,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.704515341390441</v>
+        <v>1.638675847620466</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.199025123696803</v>
@@ -12369,7 +12321,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.701208266980066</v>
+        <v>1.632128258587232</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.054765741819458</v>
@@ -12458,7 +12410,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.712760548029356</v>
+        <v>1.646394242612396</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.512432696627654</v>
@@ -12547,7 +12499,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.708260962478079</v>
+        <v>1.641667925588616</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.53714953489591</v>
@@ -12636,7 +12588,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.704374133393304</v>
+        <v>1.646527048984145</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.45731724021334</v>
@@ -12725,7 +12677,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.720285031149992</v>
+        <v>1.666467102127214</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.255228986149414</v>
@@ -12814,7 +12766,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.72980502102516</v>
+        <v>1.684553522621767</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.30375566581835</v>
@@ -12903,7 +12855,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.740781359312856</v>
+        <v>1.68946904716449</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.891135096759147</v>
@@ -12992,7 +12944,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.73887714462991</v>
+        <v>1.690856505921254</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.569244040719562</v>
@@ -13081,7 +13033,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.719562937741369</v>
+        <v>1.680779326897391</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.255601743900594</v>
@@ -13170,7 +13122,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.707154647742627</v>
+        <v>1.667342216512678</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.49594120884367</v>
@@ -13259,7 +13211,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.706829662575583</v>
+        <v>1.663354019174707</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.483584018492276</v>
@@ -13348,7 +13300,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.694816741917557</v>
+        <v>1.649455992351682</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.838329607525519</v>
@@ -13437,7 +13389,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.692268012229991</v>
+        <v>1.648280191209709</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.196399786413056</v>
@@ -13526,7 +13478,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.671976796005354</v>
+        <v>1.636441477712718</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.750947757584267</v>
@@ -13615,7 +13567,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664580195738224</v>
+        <v>1.633728840045063</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.676228641040459</v>
@@ -13704,7 +13656,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.658086873761828</v>
+        <v>1.628169562907342</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.771653327493317</v>
@@ -13793,7 +13745,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.660318948473624</v>
+        <v>1.622854134085148</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.841437900931554</v>
@@ -14079,7 +14031,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.779846754378513</v>
+        <v>1.757146408972319</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.362369838631061</v>
@@ -14168,7 +14120,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.777320597003546</v>
+        <v>1.754242568617704</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.340790365998078</v>
@@ -14257,7 +14209,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.773882804607332</v>
+        <v>1.749138654359893</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.612588366550739</v>
@@ -14346,7 +14298,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.778942077617021</v>
+        <v>1.751341182591677</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.129397279257066</v>
@@ -14435,7 +14387,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.776756333252821</v>
+        <v>1.739201260356939</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.026288649239838</v>
@@ -14524,7 +14476,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.767254965146454</v>
+        <v>1.726367464663502</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.169812351662773</v>
@@ -14613,7 +14565,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.76711337599138</v>
+        <v>1.725825815999176</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.806944985323395</v>
@@ -14702,7 +14654,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.746281684050551</v>
+        <v>1.704813102000848</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.627392097307107</v>
@@ -14791,7 +14743,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.766220132402768</v>
+        <v>1.719468641996772</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.278930654321682</v>
@@ -14880,7 +14832,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.770747936347592</v>
+        <v>1.720897628477743</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.943545361859218</v>
@@ -14969,7 +14921,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.768718033963891</v>
+        <v>1.722019831483454</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.545804898954366</v>
@@ -15058,7 +15010,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.76797246631954</v>
+        <v>1.721662778201702</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.536069099535716</v>
@@ -15147,7 +15099,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.755788160292543</v>
+        <v>1.721204863905764</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.177641783844579</v>
@@ -15236,7 +15188,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.755778677546751</v>
+        <v>1.71427336261142</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.115891252423117</v>
@@ -15325,7 +15277,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.75166691646014</v>
+        <v>1.706944977508128</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.135682418587844</v>
@@ -15414,7 +15366,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.737339512258885</v>
+        <v>1.688452202958341</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.271747941470562</v>
@@ -15503,7 +15455,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.740662558733803</v>
+        <v>1.685108974019907</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.424169273177595</v>
@@ -15592,7 +15544,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.732950255519627</v>
+        <v>1.67162327085014</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.183837449004836</v>
@@ -15681,7 +15633,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.726411581490628</v>
+        <v>1.665027746747507</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.322336783238774</v>
@@ -15770,7 +15722,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737707950360162</v>
+        <v>1.677230502116852</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.025449644334456</v>
@@ -15859,7 +15811,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.738982986880453</v>
+        <v>1.683502318707095</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.295925779654407</v>
@@ -15948,7 +15900,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.738043907697204</v>
+        <v>1.677289850903484</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.971978097176054</v>
@@ -16037,7 +15989,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.751266036477075</v>
+        <v>1.687356789785365</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.750931852127649</v>
@@ -16126,7 +16078,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.739263035792242</v>
+        <v>1.670689018839552</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.59788603415953</v>
@@ -16215,7 +16167,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.746717071813119</v>
+        <v>1.67677677855449</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.311285408430032</v>
@@ -16304,7 +16256,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.747043973943857</v>
+        <v>1.676016161642951</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.132477929473944</v>
@@ -16393,7 +16345,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.733623537949351</v>
+        <v>1.659715739641082</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.975501204057619</v>
@@ -16482,7 +16434,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.756725052739978</v>
+        <v>1.675867705173406</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.236083057169619</v>
@@ -16571,7 +16523,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.759357904379503</v>
+        <v>1.680677164992138</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.554923923543127</v>
@@ -16660,7 +16612,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.762866230053733</v>
+        <v>1.68825349012631</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.040531907790912</v>
@@ -16749,7 +16701,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778816151654623</v>
+        <v>1.713876057184073</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.702155715173034</v>
@@ -16838,7 +16790,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.79058703594331</v>
+        <v>1.733063208284761</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.324926625739688</v>
@@ -16927,7 +16879,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.804197389549832</v>
+        <v>1.747504296914205</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.054703336056794</v>
@@ -17016,7 +16968,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.807138979187868</v>
+        <v>1.753609314428666</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.976194128769982</v>
@@ -17105,7 +17057,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.802832582226289</v>
+        <v>1.75171830549058</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.530397858111765</v>
@@ -17194,7 +17146,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.812012881406373</v>
+        <v>1.757794735355775</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.641416653035663</v>
@@ -17283,7 +17235,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.820187313069378</v>
+        <v>1.768515242402827</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.063456445040154</v>
@@ -17372,7 +17324,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.820918353566989</v>
+        <v>1.779398991697519</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.826902558184277</v>
@@ -17461,7 +17413,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.834900265953402</v>
+        <v>1.796544759409767</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.889431371541703</v>
@@ -17550,7 +17502,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.842879725889405</v>
+        <v>1.807853752462345</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.128056594245073</v>
@@ -17639,7 +17591,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.850468727712346</v>
+        <v>1.811180772266159</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.388492198586125</v>
@@ -17728,7 +17680,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.85670215224282</v>
+        <v>1.820062526834261</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.239575080597808</v>
@@ -17817,7 +17769,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.848301923412047</v>
+        <v>1.809240166269041</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.905695829417565</v>
@@ -17906,7 +17858,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.846310257703654</v>
+        <v>1.803497763066369</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.936494352535966</v>
@@ -17995,7 +17947,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.848781191419146</v>
+        <v>1.80195611961821</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.281738371356096</v>
@@ -18084,7 +18036,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.837714064042566</v>
+        <v>1.790248996306914</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.568468154649565</v>
@@ -18173,7 +18125,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.836295448517874</v>
+        <v>1.789295699803368</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.655533632829504</v>
@@ -18262,7 +18214,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.804131478620604</v>
+        <v>1.764858285435921</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.348099969077643</v>
@@ -18351,7 +18303,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.803679454161577</v>
+        <v>1.765072992273969</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.287336452302881</v>
@@ -18440,7 +18392,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.803693057350035</v>
+        <v>1.764174673705819</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.490796602905939</v>
@@ -18529,7 +18481,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.795332034786317</v>
+        <v>1.749366578343816</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.306511722179942</v>
@@ -18815,7 +18767,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.745727211105762</v>
+        <v>1.702869714276962</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.996229160723684</v>
@@ -18904,7 +18856,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.742277903690788</v>
+        <v>1.693088292879063</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.770069484186575</v>
@@ -18993,7 +18945,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.745829329820917</v>
+        <v>1.693507108541638</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.05456752711803</v>
@@ -19082,7 +19034,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.754365935032972</v>
+        <v>1.705077649165642</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.550886796989218</v>
@@ -19171,7 +19123,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.787613467864848</v>
+        <v>1.727254431182107</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.901759870283833</v>
@@ -19260,7 +19212,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.793960445499045</v>
+        <v>1.730321738829064</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.426279447734136</v>
@@ -19349,7 +19301,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.801277034265746</v>
+        <v>1.734115067415686</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.924655961077034</v>
@@ -19438,7 +19390,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.779478177890908</v>
+        <v>1.718931784467974</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.95558371038807</v>
@@ -19527,7 +19479,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.788093828756527</v>
+        <v>1.732944437011426</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.50578188974839</v>
@@ -19616,7 +19568,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.793028316736365</v>
+        <v>1.729808552993729</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.537768049101345</v>
@@ -19705,7 +19657,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.79443025501887</v>
+        <v>1.735856458687592</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.244814745956122</v>
@@ -19794,7 +19746,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.779951412693632</v>
+        <v>1.720043168493497</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.046492642948104</v>
@@ -19883,7 +19835,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.77034769236166</v>
+        <v>1.71267737035675</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.737996787941945</v>
@@ -19972,7 +19924,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.77138177927578</v>
+        <v>1.707870533547029</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.970301716916038</v>
@@ -20061,7 +20013,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.770909287129125</v>
+        <v>1.706836913560325</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.704501014338031</v>
@@ -20150,7 +20102,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.761506890625633</v>
+        <v>1.684626970413744</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.801687328554524</v>
@@ -20239,7 +20191,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763018988320066</v>
+        <v>1.682689335023426</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.844677956712872</v>
@@ -20328,7 +20280,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.749758017745647</v>
+        <v>1.674964503637054</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.053251152809315</v>
@@ -20417,7 +20369,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.756325257482249</v>
+        <v>1.68481144657986</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.680970484092945</v>
@@ -20506,7 +20458,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.753095253860772</v>
+        <v>1.690240222524725</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.725271433188121</v>
@@ -20595,7 +20547,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.752350031098349</v>
+        <v>1.684770739343523</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.179546710540445</v>
@@ -20684,7 +20636,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.755028474491171</v>
+        <v>1.685705470108192</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.270690364032414</v>
@@ -20773,7 +20725,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.772378750685051</v>
+        <v>1.700356458753655</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.846761018220386</v>
@@ -20862,7 +20814,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.760354613196666</v>
+        <v>1.679847082080088</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.261489232601446</v>
@@ -20951,7 +20903,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.759386566498075</v>
+        <v>1.679727406891491</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.119309585076525</v>
@@ -21040,7 +20992,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.76028391016363</v>
+        <v>1.684479582830332</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.66096639633254</v>
@@ -21129,7 +21081,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.761441762305445</v>
+        <v>1.692380993159463</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.056801378187539</v>
@@ -21218,7 +21170,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.780520315209914</v>
+        <v>1.710299913926762</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.366115165886986</v>
@@ -21307,7 +21259,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.785839929603287</v>
+        <v>1.72384580698169</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.854375180575077</v>
@@ -21396,7 +21348,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.775031258556613</v>
+        <v>1.717289874398598</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.891325312143707</v>
@@ -21485,7 +21437,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.789618545869086</v>
+        <v>1.745666770532202</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.525704266962432</v>
@@ -21574,7 +21526,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.796922350881675</v>
+        <v>1.752994381300946</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.446093889077973</v>
@@ -21663,7 +21615,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.804213904877203</v>
+        <v>1.756294133360069</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.438987705857805</v>
@@ -21752,7 +21704,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.794487997296642</v>
+        <v>1.739428797514334</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.771190038248171</v>
@@ -21841,7 +21793,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.794878576467567</v>
+        <v>1.738923491319668</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.645500025339316</v>
@@ -21930,7 +21882,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.790324299125401</v>
+        <v>1.738497618341418</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.431583850082556</v>
@@ -22019,7 +21971,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.79053587391928</v>
+        <v>1.738739481293594</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.691482103960447</v>
@@ -22108,7 +22060,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.788275649591504</v>
+        <v>1.739847383192309</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.594167705426215</v>
@@ -22197,7 +22149,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.796412478192753</v>
+        <v>1.75322787245533</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.371309965078273</v>
@@ -22286,7 +22238,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.805060743624082</v>
+        <v>1.766421076657091</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.725188204513497</v>
@@ -22375,7 +22327,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.813586448751391</v>
+        <v>1.770406048397886</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.08195734071212</v>
@@ -22464,7 +22416,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.821889719964031</v>
+        <v>1.775716685490202</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.309538171446742</v>
@@ -22553,7 +22505,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.807355068065475</v>
+        <v>1.760424019759851</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.401270795863243</v>
@@ -22642,7 +22594,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.806392784742303</v>
+        <v>1.759665223683719</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.306070147194165</v>
@@ -22731,7 +22683,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.831157339264896</v>
+        <v>1.77704522859607</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.446481140056166</v>
@@ -22820,7 +22772,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.819472361749614</v>
+        <v>1.767598435487811</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.383786255399813</v>
@@ -22909,7 +22861,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.815647621778589</v>
+        <v>1.770914941789324</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.743769626492689</v>
@@ -22998,7 +22950,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.807299895742178</v>
+        <v>1.763423199124301</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.527050680676389</v>
@@ -23087,7 +23039,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.807852778380454</v>
+        <v>1.763876914717969</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.164915668230662</v>
@@ -23176,7 +23128,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.808226810292102</v>
+        <v>1.763280068849106</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.530197500418701</v>
@@ -23265,7 +23217,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.810703610225375</v>
+        <v>1.765293260198592</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.463460029377284</v>
@@ -23551,7 +23503,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633873770545758</v>
+        <v>1.630148270117263</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.267736509964502</v>
@@ -23640,7 +23592,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.621494752534562</v>
+        <v>1.610054206330078</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.174613826538411</v>
@@ -23729,7 +23681,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.637102092995369</v>
+        <v>1.625339238069754</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.918105294346562</v>
@@ -23818,7 +23770,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663368980873431</v>
+        <v>1.63914622735324</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.082234379048105</v>
@@ -23907,7 +23859,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.670224874108065</v>
+        <v>1.637658773721063</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.268370832426323</v>
@@ -23996,7 +23948,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.664128145817241</v>
+        <v>1.627292653227913</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.828672793717111</v>
@@ -24085,7 +24037,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.683732698349478</v>
+        <v>1.638517968057304</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.148743287206845</v>
@@ -24174,7 +24126,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.655096475766442</v>
+        <v>1.61332509767673</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.076585941438123</v>
@@ -24263,7 +24215,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.663284516597273</v>
+        <v>1.615770490538157</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.878754377391589</v>
@@ -24352,7 +24304,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666254877209863</v>
+        <v>1.612332180182324</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.020342820762952</v>
@@ -24441,7 +24393,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670368550433448</v>
+        <v>1.622461542529898</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.74228145070225</v>
@@ -24530,7 +24482,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652213028071341</v>
+        <v>1.602932421833576</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.986442970382929</v>
@@ -24619,7 +24571,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.641322057135662</v>
+        <v>1.603420477903499</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.858050635841355</v>
@@ -24708,7 +24660,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65503947372541</v>
+        <v>1.607938854357266</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.817135486429161</v>
@@ -24797,7 +24749,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654122547445581</v>
+        <v>1.595655120859863</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.8532318923683</v>
@@ -24886,7 +24838,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.63378558788907</v>
+        <v>1.573088406723307</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.665835556677036</v>
@@ -24975,7 +24927,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.631890937450813</v>
+        <v>1.561582910485776</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.820194858435638</v>
@@ -25064,7 +25016,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.618277167309387</v>
+        <v>1.548428563935162</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.771976111235204</v>
@@ -25153,7 +25105,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.616163171105968</v>
+        <v>1.544232019902866</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.917645183342052</v>
@@ -25242,7 +25194,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613877537437675</v>
+        <v>1.548870333261592</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.757069101865592</v>
@@ -25331,7 +25283,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.617803551986008</v>
+        <v>1.555738376298969</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.711858755900921</v>
@@ -25420,7 +25372,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615354047076279</v>
+        <v>1.550532107678058</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.539757538681399</v>
@@ -25509,7 +25461,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.638742783459411</v>
+        <v>1.564734696774651</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.995320171880054</v>
@@ -25598,7 +25550,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.634673212255413</v>
+        <v>1.557067845331452</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.999218300678455</v>
@@ -25687,7 +25639,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.63522758559547</v>
+        <v>1.549877072704287</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.876591862811932</v>
@@ -25776,7 +25728,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.636780321479205</v>
+        <v>1.547493285478637</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.788034124672243</v>
@@ -25865,7 +25817,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629315579309804</v>
+        <v>1.542030019697864</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.761620298060907</v>
@@ -25954,7 +25906,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65583565158623</v>
+        <v>1.556487049700072</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.023735922450314</v>
@@ -26043,7 +25995,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.658228788385729</v>
+        <v>1.558515173212606</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.034935363772097</v>
@@ -26132,7 +26084,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.642728817735137</v>
+        <v>1.549362969929095</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.462255685690108</v>
@@ -26221,7 +26173,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653719558415666</v>
+        <v>1.567771193359528</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.086378288200625</v>
@@ -26310,7 +26262,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.670538518389502</v>
+        <v>1.586506517111381</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.013161173654339</v>
@@ -26399,7 +26351,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.689324367017019</v>
+        <v>1.604777717093706</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.099508912534947</v>
@@ -26488,7 +26440,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.689194962341031</v>
+        <v>1.602230516692612</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.955357533539976</v>
@@ -26577,7 +26529,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.684602715042542</v>
+        <v>1.597515408135281</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.777057534415806</v>
@@ -26666,7 +26618,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.693185152087648</v>
+        <v>1.60535006485214</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.083881536045144</v>
@@ -26755,7 +26707,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.705499416827628</v>
+        <v>1.615200592003952</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.949707762075735</v>
@@ -26844,7 +26796,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.694975730944316</v>
+        <v>1.616118375254416</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.024115261491847</v>
@@ -26933,7 +26885,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.709315846023077</v>
+        <v>1.634095642267903</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.023443645400322</v>
@@ -27022,7 +26974,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.717878986670994</v>
+        <v>1.651556345517129</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.843719771948503</v>
@@ -27111,7 +27063,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.726968781699576</v>
+        <v>1.656088556224808</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.738127305157927</v>
@@ -27200,7 +27152,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.729324827584651</v>
+        <v>1.660185864718414</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.968789989903218</v>
@@ -27289,7 +27241,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715467392901792</v>
+        <v>1.656787030090872</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.776510514427564</v>
@@ -27378,7 +27330,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.712377233718344</v>
+        <v>1.651815940868625</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.021074123924878</v>
@@ -27467,7 +27419,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.742798599957807</v>
+        <v>1.677324528977421</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.551589892856851</v>
@@ -27556,7 +27508,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.731477135723343</v>
+        <v>1.67437748228313</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.763615247915094</v>
@@ -27645,7 +27597,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.727006042663781</v>
+        <v>1.676206886782185</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.956363154928883</v>
@@ -27734,7 +27686,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.691643661085099</v>
+        <v>1.651498191041574</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.929944628564499</v>
@@ -27823,7 +27775,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.692584125811306</v>
+        <v>1.658375488640021</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.774142734942822</v>
@@ -27912,7 +27864,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.686556054113116</v>
+        <v>1.653322004498605</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.117259669648413</v>
@@ -28001,7 +27953,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.673526429435417</v>
+        <v>1.631680520302549</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.994448424441848</v>
@@ -28287,7 +28239,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.444337887503251</v>
+        <v>1.469133310528144</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.39953381374653</v>
@@ -28376,7 +28328,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.468274937974567</v>
+        <v>1.49061181458482</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.517988683900546</v>
@@ -28465,7 +28417,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.44984395224715</v>
+        <v>1.473354415535251</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.314060727007385</v>
@@ -28554,7 +28506,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.481728126541085</v>
+        <v>1.504516541812844</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.281714553233163</v>
@@ -28643,7 +28595,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.498770093089105</v>
+        <v>1.518846385401553</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.366977485970426</v>
@@ -28732,7 +28684,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.556211023362081</v>
+        <v>1.573539484062637</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.301674552546704</v>
@@ -28821,7 +28773,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56498799685341</v>
+        <v>1.583176559292837</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.284128866069291</v>
@@ -28910,7 +28862,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.56219856938694</v>
+        <v>1.583622078523871</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.390530603964396</v>
@@ -28999,7 +28951,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.619485697538307</v>
+        <v>1.637655964776102</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.159630004701147</v>
@@ -29088,7 +29040,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.646694322596421</v>
+        <v>1.662592296617073</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.502163983704914</v>
@@ -29177,7 +29129,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.655055847310449</v>
+        <v>1.671315245200504</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.584316148430633</v>
@@ -29266,7 +29218,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.689235141058125</v>
+        <v>1.698546155663668</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.585707354552459</v>
@@ -29355,7 +29307,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.660779894379765</v>
+        <v>1.673070703372652</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.504457131794084</v>
@@ -29444,7 +29396,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.664852388739943</v>
+        <v>1.679457365447671</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.570793840425005</v>
@@ -29533,7 +29485,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668351314741265</v>
+        <v>1.676964657772366</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.490979300233365</v>
@@ -29622,7 +29574,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.675760544411387</v>
+        <v>1.680678866213881</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.351101227726759</v>
@@ -29711,7 +29663,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.674889558163694</v>
+        <v>1.681032404565344</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.483932521446201</v>
@@ -29800,7 +29752,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.674351261448286</v>
+        <v>1.67793977761855</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.466362369698768</v>
@@ -29889,7 +29841,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675578982935621</v>
+        <v>1.681434061424157</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.542676042815621</v>
@@ -29978,7 +29930,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.674317510491828</v>
+        <v>1.679658901089698</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.528675626781317</v>
@@ -30067,7 +30019,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.6337947580909</v>
+        <v>1.644933859879232</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.560361490940544</v>
@@ -30156,7 +30108,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.637407334248806</v>
+        <v>1.649841888133084</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.602626545516606</v>
@@ -30245,7 +30197,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.641226872108265</v>
+        <v>1.649400707389496</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.435538474704683</v>
@@ -30334,7 +30286,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.634706269094749</v>
+        <v>1.638468809730796</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.70249932881125</v>
@@ -30423,7 +30375,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.671230972599024</v>
+        <v>1.670652994432991</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.645119474226587</v>
@@ -30512,7 +30464,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.676373266075484</v>
+        <v>1.674939366933021</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.707970561034413</v>
@@ -30601,7 +30553,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.649083599795507</v>
+        <v>1.660861973144238</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.381556563829965</v>
@@ -30690,7 +30642,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.68957523275191</v>
+        <v>1.703353972063902</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.518997666935614</v>
@@ -30779,7 +30731,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686632441699814</v>
+        <v>1.701735383536275</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.643885720660537</v>
@@ -30868,7 +30820,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.662354703405098</v>
+        <v>1.681730025288659</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.512318030644897</v>
@@ -30957,7 +30909,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.678021165861523</v>
+        <v>1.705353369287908</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.497299152824978</v>
@@ -31046,7 +30998,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.674509575516039</v>
+        <v>1.705019288745003</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.619207343778284</v>
@@ -31135,7 +31087,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.725720894557766</v>
+        <v>1.752526942906347</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.626775093137803</v>
@@ -31224,7 +31176,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.720076822723107</v>
+        <v>1.745741210123398</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.553678801557253</v>
@@ -31313,7 +31265,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.726968402506357</v>
+        <v>1.752991389729867</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.418204110380358</v>
@@ -31402,7 +31354,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.773363599847395</v>
+        <v>1.791976346275358</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.523203853235125</v>
@@ -31491,7 +31443,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.771030949413734</v>
+        <v>1.789874639522473</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.639934275900802</v>
@@ -31580,7 +31532,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.757699788546977</v>
+        <v>1.780743625101755</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.615439507399322</v>
@@ -31669,7 +31621,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763568266252026</v>
+        <v>1.788409354256721</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.6690144945049</v>
@@ -31758,7 +31710,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.763498039985933</v>
+        <v>1.791343660952637</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.635133419640313</v>
@@ -31847,7 +31799,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.796765444399641</v>
+        <v>1.819163987584857</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.415000555671055</v>
@@ -31936,7 +31888,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.822994294495325</v>
+        <v>1.834157919929535</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.847240384085952</v>
@@ -32025,7 +31977,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.81342915665311</v>
+        <v>1.828616995957593</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.876523840802144</v>
@@ -32114,7 +32066,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.810448476512289</v>
+        <v>1.815223000485674</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.763699022859031</v>
@@ -32203,7 +32155,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.821742988700161</v>
+        <v>1.840298837698257</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.747360261867307</v>
@@ -32292,7 +32244,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.827748998873975</v>
+        <v>1.840732146322113</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.929550004838638</v>
@@ -32381,7 +32333,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.826175290389149</v>
+        <v>1.834066319227058</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.68046258565356</v>
@@ -32470,7 +32422,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.711907291081957</v>
+        <v>1.720052929759754</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.607079887420066</v>
@@ -32559,7 +32511,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.699615564683752</v>
+        <v>1.714055075933403</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.637037965212398</v>
@@ -32648,7 +32600,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.698707611703444</v>
+        <v>1.712511253132051</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.573379719787219</v>
@@ -32737,7 +32689,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.699402839068264</v>
+        <v>1.712905867900929</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.496284525119493</v>
